--- a/_BaoCao/AcceptanceTesting/AcceptanceTest-TB.xlsx
+++ b/_BaoCao/AcceptanceTesting/AcceptanceTest-TB.xlsx
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -363,44 +363,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,740 +777,740 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="297" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="G17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="21"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>1</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>2</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>4</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>5</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>6</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>7</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>8</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>9</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="22" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="16"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <v>2</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="16"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>3</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="16"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>4</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>5</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>6</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>7</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="12" t="s">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="99" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <v>1</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="66" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <v>2</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13" t="s">
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="181.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <v>3</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
+      <c r="D41" s="12"/>
+      <c r="E41" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <v>4</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13" t="s">
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="132" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <v>5</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" ht="231" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <v>6</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
